--- a/medium alphabet/test_results_19_06.xlsx
+++ b/medium alphabet/test_results_19_06.xlsx
@@ -23,6 +23,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>gamma\log2(delta)</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>pfa</t>
+  </si>
+  <si>
+    <t>pmd</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,15 +359,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>-9</v>
+      </c>
+      <c r="C1">
+        <v>-8.5</v>
+      </c>
+      <c r="D1">
+        <v>-8</v>
+      </c>
+      <c r="E1">
+        <v>-7.5</v>
+      </c>
+      <c r="F1">
+        <v>-7</v>
+      </c>
+      <c r="G1">
+        <v>-6.5</v>
+      </c>
+      <c r="H1">
+        <v>-6</v>
+      </c>
+      <c r="I1">
+        <v>-5.5</v>
+      </c>
+      <c r="J1">
+        <v>-5</v>
+      </c>
+      <c r="K1">
+        <v>-4.5</v>
+      </c>
+      <c r="L1">
+        <v>-4</v>
+      </c>
+      <c r="M1">
+        <v>-3.5</v>
+      </c>
+      <c r="N1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
       <c r="B2">
         <v>0.17971000000000001</v>
       </c>
@@ -388,7 +458,10 @@
         <v>1.2E-4</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.15</v>
+      </c>
       <c r="B3">
         <v>8.6110000000000006E-2</v>
       </c>
@@ -429,7 +502,10 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
       <c r="B4">
         <v>3.5810000000000002E-2</v>
       </c>
@@ -470,7 +546,10 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
       <c r="B5">
         <v>1.187E-2</v>
       </c>
@@ -511,7 +590,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
       <c r="B6">
         <v>4.9300000000000004E-3</v>
       </c>
@@ -552,7 +634,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.35</v>
+      </c>
       <c r="B7">
         <v>1.1299999999999999E-3</v>
       </c>
@@ -593,7 +678,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
       <c r="B8">
         <v>2.1000000000000001E-4</v>
       </c>
@@ -634,7 +722,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
       <c r="B11">
         <v>0.57506000000000002</v>
       </c>
@@ -675,7 +771,10 @@
         <v>0.99312</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.15</v>
+      </c>
       <c r="B12">
         <v>0.71284999999999998</v>
       </c>
@@ -716,7 +815,10 @@
         <v>0.99533000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.2</v>
+      </c>
       <c r="B13">
         <v>0.82028999999999996</v>
       </c>
@@ -757,7 +859,10 @@
         <v>0.99690999999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.25</v>
+      </c>
       <c r="B14">
         <v>0.89571000000000001</v>
       </c>
@@ -798,7 +903,10 @@
         <v>0.99797999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.3</v>
+      </c>
       <c r="B15">
         <v>0.93798999999999999</v>
       </c>
@@ -839,7 +947,10 @@
         <v>0.99895999999999996</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.35</v>
+      </c>
       <c r="B16">
         <v>0.97226000000000001</v>
       </c>
@@ -880,7 +991,10 @@
         <v>0.99938000000000005</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.4</v>
+      </c>
       <c r="B17">
         <v>0.98648000000000002</v>
       </c>
@@ -928,15 +1042,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
       <c r="B2">
         <v>0.19009000000000001</v>
       </c>
@@ -944,7 +1072,10 @@
         <v>0.54400999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.15</v>
+      </c>
       <c r="B3">
         <v>9.6110000000000001E-2</v>
       </c>
@@ -952,7 +1083,10 @@
         <v>0.68235999999999997</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
       <c r="B4">
         <v>4.6890000000000001E-2</v>
       </c>
@@ -960,7 +1094,10 @@
         <v>0.79052</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.25</v>
+      </c>
       <c r="B5">
         <v>1.4919999999999999E-2</v>
       </c>
@@ -968,7 +1105,10 @@
         <v>0.88370000000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
       <c r="B6">
         <v>4.8700000000000002E-3</v>
       </c>
@@ -976,7 +1116,10 @@
         <v>0.93869000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.35</v>
+      </c>
       <c r="B7">
         <v>1.15E-3</v>
       </c>
@@ -984,7 +1127,10 @@
         <v>0.97157000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
       <c r="B8">
         <v>2.7999999999999998E-4</v>
       </c>
@@ -999,15 +1145,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-2</v>
+      </c>
       <c r="B2">
         <v>9.4000000000000004E-3</v>
       </c>
@@ -1015,7 +1175,10 @@
         <v>0.90510000000000002</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1.5</v>
+      </c>
       <c r="B3">
         <v>7.7000000000000002E-3</v>
       </c>
@@ -1023,7 +1186,10 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1</v>
+      </c>
       <c r="B4">
         <v>5.7999999999999996E-3</v>
       </c>
@@ -1031,7 +1197,10 @@
         <v>0.93169999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.5</v>
+      </c>
       <c r="B5">
         <v>4.7999999999999996E-3</v>
       </c>
@@ -1039,7 +1208,10 @@
         <v>0.93989999999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
       <c r="B6">
         <v>3.3E-3</v>
       </c>
@@ -1047,7 +1219,10 @@
         <v>0.95109999999999995</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
       <c r="B7">
         <v>1.8E-3</v>
       </c>
@@ -1055,7 +1230,10 @@
         <v>0.96209999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -1063,7 +1241,10 @@
         <v>0.97019999999999995</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.5</v>
+      </c>
       <c r="B9" s="1">
         <v>7.6999999999999996E-4</v>
       </c>
@@ -1071,7 +1252,10 @@
         <v>0.97840000000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -1079,7 +1263,10 @@
         <v>0.98480000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.5</v>
+      </c>
       <c r="B11" s="1">
         <v>1.9000000000000001E-4</v>
       </c>
@@ -1087,7 +1274,10 @@
         <v>0.98809999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
       <c r="B12" s="1">
         <v>6.0000000000000002E-5</v>
       </c>
@@ -1095,7 +1285,10 @@
         <v>0.99150000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.5</v>
+      </c>
       <c r="B13" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -1103,7 +1296,10 @@
         <v>0.99509999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
       <c r="B14" s="1">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -1111,7 +1307,10 @@
         <v>0.99690000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4.5</v>
+      </c>
       <c r="B15" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -1119,7 +1318,10 @@
         <v>0.99809999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
